--- a/docs/WBS/WBS_20141130.xlsx
+++ b/docs/WBS/WBS_20141130.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14790" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
   </bookViews>
   <sheets>
     <sheet name="WBS " sheetId="7" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WBS '!$A$19:$BN$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'WBS '!$A$1:$BN$81</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -471,15 +471,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>渡邊</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邊</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,6 +1305,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1436,16 +1458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>73602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1456,8 +1478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19735800" y="790575"/>
-          <a:ext cx="266700" cy="2333625"/>
+          <a:off x="25894145" y="689263"/>
+          <a:ext cx="235528" cy="2266084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,8 +1536,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19846636" y="398318"/>
-          <a:ext cx="0" cy="25544317"/>
+          <a:off x="14620009" y="435552"/>
+          <a:ext cx="0" cy="36338424"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1546,15 +1568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>19916</xdr:colOff>
+      <xdr:colOff>6061</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>10391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>19916</xdr:colOff>
+      <xdr:colOff>6061</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>49906</xdr:rowOff>
+      <xdr:rowOff>22197</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1563,8 +1585,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25069800" y="400050"/>
-          <a:ext cx="0" cy="34478767"/>
+          <a:off x="16257443" y="398318"/>
+          <a:ext cx="0" cy="36338424"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1662,7 +1684,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>html/cssJSP/java8</a:t>
+            <a:t>html/css/JSP/java8</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1826,16 +1848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235526</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>235526</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1846,8 +1868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="13868400" y="6600825"/>
-          <a:ext cx="476250" cy="542925"/>
+          <a:off x="12482944" y="6456218"/>
+          <a:ext cx="471055" cy="540327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,11 +2620,355 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="13877057" y="9157855"/>
+          <a:ext cx="725633" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="12954000" y="10238509"/>
+          <a:ext cx="1413164" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>526474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>526474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="12954000" y="11305310"/>
+          <a:ext cx="1413164" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="12482945" y="6996545"/>
+          <a:ext cx="457200" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="12954000" y="16722436"/>
+          <a:ext cx="457200" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="12954000" y="18883745"/>
+          <a:ext cx="457200" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="13425055" y="19964400"/>
+          <a:ext cx="457200" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="13896109" y="21045055"/>
+          <a:ext cx="457200" cy="540328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2644,7 +3010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2676,9 +3042,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2710,6 +3077,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2885,37 +3253,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN159"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="19" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="19" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE21" sqref="AE21"/>
+      <selection pane="bottomRight" activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="72.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="37" width="3.5" style="6" customWidth="1"/>
-    <col min="38" max="38" width="3.5" style="6"/>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="37" width="3.44140625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="3.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="18" thickBot="1">
+    <row r="1" spans="1:66" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:66" ht="14.25" thickBot="1">
+    <row r="2" spans="1:66" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F2" s="79">
         <v>41944</v>
       </c>
@@ -2984,7 +3352,7 @@
       <c r="BM2" s="83"/>
       <c r="BN2" s="84"/>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F3" s="63">
         <v>41967</v>
       </c>
@@ -3229,7 +3597,7 @@
         <v>42027</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F4" s="7" t="str">
         <f>CHOOSE(WEEKDAY(F3),"日","月","火","水","木","金","土")</f>
         <v>月</v>
@@ -3475,7 +3843,7 @@
         <v>金</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F5" s="8"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -3538,7 +3906,7 @@
       <c r="BM5" s="5"/>
       <c r="BN5" s="10"/>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F6" s="28"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -3601,7 +3969,7 @@
       <c r="BM6" s="29"/>
       <c r="BN6" s="32"/>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -3667,7 +4035,7 @@
       <c r="BM7" s="29"/>
       <c r="BN7" s="32"/>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -3730,7 +4098,7 @@
       <c r="BM8" s="29"/>
       <c r="BN8" s="32"/>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -3793,7 +4161,7 @@
       <c r="BM9" s="29"/>
       <c r="BN9" s="32"/>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -3856,7 +4224,7 @@
       <c r="BM10" s="29"/>
       <c r="BN10" s="32"/>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -3919,7 +4287,7 @@
       <c r="BM11" s="29"/>
       <c r="BN11" s="32"/>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F12" s="28"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
@@ -3982,7 +4350,7 @@
       <c r="BM12" s="29"/>
       <c r="BN12" s="32"/>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>25</v>
       </c>
@@ -4048,7 +4416,7 @@
       <c r="BM13" s="29"/>
       <c r="BN13" s="32"/>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -4114,7 +4482,7 @@
       <c r="BM14" s="29"/>
       <c r="BN14" s="32"/>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>13</v>
       </c>
@@ -4180,7 +4548,7 @@
       <c r="BM15" s="29"/>
       <c r="BN15" s="32"/>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>14</v>
       </c>
@@ -4246,7 +4614,7 @@
       <c r="BM16" s="29"/>
       <c r="BN16" s="32"/>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>26</v>
       </c>
@@ -4312,7 +4680,7 @@
       <c r="BM17" s="29"/>
       <c r="BN17" s="32"/>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -4375,7 +4743,7 @@
       <c r="BM18" s="29"/>
       <c r="BN18" s="32"/>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
@@ -4453,7 +4821,7 @@
       <c r="BM19" s="33"/>
       <c r="BN19" s="34"/>
     </row>
-    <row r="20" spans="1:66" ht="42.75" customHeight="1">
+    <row r="20" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>48</v>
       </c>
@@ -4527,7 +4895,7 @@
       <c r="BM20" s="36"/>
       <c r="BN20" s="37"/>
     </row>
-    <row r="21" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="27"/>
       <c r="C21" s="48"/>
@@ -4597,7 +4965,7 @@
       <c r="BM21" s="42"/>
       <c r="BN21" s="42"/>
     </row>
-    <row r="22" spans="1:66" ht="42.75" customHeight="1">
+    <row r="22" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
@@ -4669,7 +5037,7 @@
       <c r="BM22" s="36"/>
       <c r="BN22" s="37"/>
     </row>
-    <row r="23" spans="1:66" ht="42.75" customHeight="1">
+    <row r="23" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="27"/>
@@ -4739,7 +5107,7 @@
       <c r="BM23" s="36"/>
       <c r="BN23" s="37"/>
     </row>
-    <row r="24" spans="1:66" ht="42.75" customHeight="1">
+    <row r="24" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
@@ -4811,7 +5179,7 @@
       <c r="BM24" s="36"/>
       <c r="BN24" s="37"/>
     </row>
-    <row r="25" spans="1:66" ht="42.75" customHeight="1">
+    <row r="25" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="27"/>
@@ -4881,7 +5249,7 @@
       <c r="BM25" s="36"/>
       <c r="BN25" s="37"/>
     </row>
-    <row r="26" spans="1:66" ht="42.75" customHeight="1">
+    <row r="26" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
@@ -4957,7 +5325,7 @@
       <c r="BM26" s="36"/>
       <c r="BN26" s="37"/>
     </row>
-    <row r="27" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="27"/>
       <c r="C27" s="48"/>
@@ -5027,7 +5395,7 @@
       <c r="BM27" s="42"/>
       <c r="BN27" s="42"/>
     </row>
-    <row r="28" spans="1:66" ht="42.75" customHeight="1">
+    <row r="28" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
@@ -5099,7 +5467,7 @@
       <c r="BM28" s="36"/>
       <c r="BN28" s="37"/>
     </row>
-    <row r="29" spans="1:66" ht="42.75" customHeight="1">
+    <row r="29" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="27"/>
@@ -5169,7 +5537,7 @@
       <c r="BM29" s="36"/>
       <c r="BN29" s="37"/>
     </row>
-    <row r="30" spans="1:66" ht="42.75" customHeight="1">
+    <row r="30" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="27" t="s">
         <v>31</v>
@@ -5243,7 +5611,7 @@
       <c r="BM30" s="36"/>
       <c r="BN30" s="37"/>
     </row>
-    <row r="31" spans="1:66" ht="42.75" customHeight="1">
+    <row r="31" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="27"/>
@@ -5313,7 +5681,7 @@
       <c r="BM31" s="36"/>
       <c r="BN31" s="37"/>
     </row>
-    <row r="32" spans="1:66" ht="42.75" customHeight="1">
+    <row r="32" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>18</v>
       </c>
@@ -5389,7 +5757,7 @@
       <c r="BM32" s="36"/>
       <c r="BN32" s="37"/>
     </row>
-    <row r="33" spans="1:66" ht="42.75" customHeight="1">
+    <row r="33" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="27"/>
@@ -5459,7 +5827,7 @@
       <c r="BM33" s="36"/>
       <c r="BN33" s="37"/>
     </row>
-    <row r="34" spans="1:66" ht="42.75" customHeight="1">
+    <row r="34" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27" t="s">
@@ -5531,12 +5899,12 @@
       <c r="BM34" s="36"/>
       <c r="BN34" s="37"/>
     </row>
-    <row r="35" spans="1:66" ht="42.75" customHeight="1">
+    <row r="35" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="27"/>
       <c r="D35" s="24" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="35"/>
@@ -5601,7 +5969,7 @@
       <c r="BM35" s="36"/>
       <c r="BN35" s="37"/>
     </row>
-    <row r="36" spans="1:66" ht="42.75" customHeight="1">
+    <row r="36" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="27" t="s">
         <v>39</v>
@@ -5675,7 +6043,7 @@
       <c r="BM36" s="36"/>
       <c r="BN36" s="37"/>
     </row>
-    <row r="37" spans="1:66" ht="42.75" customHeight="1">
+    <row r="37" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="27"/>
@@ -5743,7 +6111,7 @@
       <c r="BM37" s="36"/>
       <c r="BN37" s="37"/>
     </row>
-    <row r="38" spans="1:66" ht="42.75" customHeight="1">
+    <row r="38" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27" t="s">
@@ -5815,7 +6183,7 @@
       <c r="BM38" s="36"/>
       <c r="BN38" s="37"/>
     </row>
-    <row r="39" spans="1:66" ht="42.75" customHeight="1">
+    <row r="39" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="27"/>
@@ -5883,7 +6251,7 @@
       <c r="BM39" s="36"/>
       <c r="BN39" s="37"/>
     </row>
-    <row r="40" spans="1:66" ht="42.75" customHeight="1">
+    <row r="40" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27" t="s">
@@ -5955,7 +6323,7 @@
       <c r="BM40" s="36"/>
       <c r="BN40" s="37"/>
     </row>
-    <row r="41" spans="1:66" ht="42.75" customHeight="1">
+    <row r="41" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="27"/>
@@ -6023,7 +6391,7 @@
       <c r="BM41" s="36"/>
       <c r="BN41" s="37"/>
     </row>
-    <row r="42" spans="1:66" ht="42.75" customHeight="1">
+    <row r="42" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27" t="s">
@@ -6095,11 +6463,13 @@
       <c r="BM42" s="36"/>
       <c r="BN42" s="37"/>
     </row>
-    <row r="43" spans="1:66" ht="42.75" customHeight="1">
+    <row r="43" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="24"/>
+      <c r="D43" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="E43" s="24"/>
       <c r="F43" s="35"/>
       <c r="G43" s="36"/>
@@ -6163,7 +6533,7 @@
       <c r="BM43" s="36"/>
       <c r="BN43" s="37"/>
     </row>
-    <row r="44" spans="1:66" ht="42.75" customHeight="1">
+    <row r="44" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>15</v>
       </c>
@@ -6241,7 +6611,7 @@
       <c r="BM44" s="36"/>
       <c r="BN44" s="37"/>
     </row>
-    <row r="45" spans="1:66" ht="42.75" customHeight="1">
+    <row r="45" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="27"/>
@@ -6311,7 +6681,7 @@
       <c r="BM45" s="36"/>
       <c r="BN45" s="37"/>
     </row>
-    <row r="46" spans="1:66" ht="42.75" customHeight="1">
+    <row r="46" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="27" t="s">
@@ -6383,7 +6753,7 @@
       <c r="BM46" s="36"/>
       <c r="BN46" s="37"/>
     </row>
-    <row r="47" spans="1:66" ht="42.75" customHeight="1">
+    <row r="47" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="27"/>
@@ -6453,7 +6823,7 @@
       <c r="BM47" s="36"/>
       <c r="BN47" s="37"/>
     </row>
-    <row r="48" spans="1:66" ht="42.75" customHeight="1">
+    <row r="48" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="27" t="s">
@@ -6525,7 +6895,7 @@
       <c r="BM48" s="36"/>
       <c r="BN48" s="37"/>
     </row>
-    <row r="49" spans="1:66" ht="42.75" customHeight="1">
+    <row r="49" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="27"/>
@@ -6595,7 +6965,7 @@
       <c r="BM49" s="36"/>
       <c r="BN49" s="37"/>
     </row>
-    <row r="50" spans="1:66" ht="42.75" customHeight="1">
+    <row r="50" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="27" t="s">
@@ -6667,7 +7037,7 @@
       <c r="BM50" s="36"/>
       <c r="BN50" s="37"/>
     </row>
-    <row r="51" spans="1:66" ht="42.75" customHeight="1">
+    <row r="51" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="27"/>
@@ -6737,7 +7107,7 @@
       <c r="BM51" s="36"/>
       <c r="BN51" s="37"/>
     </row>
-    <row r="52" spans="1:66" ht="42.75" customHeight="1">
+    <row r="52" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="27" t="s">
@@ -6809,7 +7179,7 @@
       <c r="BM52" s="11"/>
       <c r="BN52" s="11"/>
     </row>
-    <row r="53" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="23"/>
@@ -6879,7 +7249,7 @@
       <c r="BM53" s="39"/>
       <c r="BN53" s="40"/>
     </row>
-    <row r="54" spans="1:66" ht="42.75" customHeight="1">
+    <row r="54" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
         <v>21</v>
       </c>
@@ -6953,7 +7323,7 @@
       <c r="BM54" s="36"/>
       <c r="BN54" s="37"/>
     </row>
-    <row r="55" spans="1:66" ht="42.75" customHeight="1">
+    <row r="55" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -7023,7 +7393,7 @@
       <c r="BM55" s="36"/>
       <c r="BN55" s="37"/>
     </row>
-    <row r="56" spans="1:66" ht="42.75" customHeight="1">
+    <row r="56" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
         <v>19</v>
@@ -7097,7 +7467,7 @@
       <c r="BM56" s="36"/>
       <c r="BN56" s="37"/>
     </row>
-    <row r="57" spans="1:66" ht="42.75" customHeight="1">
+    <row r="57" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="27"/>
@@ -7165,7 +7535,7 @@
       <c r="BM57" s="36"/>
       <c r="BN57" s="37"/>
     </row>
-    <row r="58" spans="1:66" ht="42.75" customHeight="1">
+    <row r="58" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="27" t="s">
@@ -7237,7 +7607,7 @@
       <c r="BM58" s="36"/>
       <c r="BN58" s="37"/>
     </row>
-    <row r="59" spans="1:66" ht="42.75" customHeight="1">
+    <row r="59" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="27"/>
@@ -7305,7 +7675,7 @@
       <c r="BM59" s="36"/>
       <c r="BN59" s="37"/>
     </row>
-    <row r="60" spans="1:66" ht="42.75" customHeight="1">
+    <row r="60" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="27" t="s">
@@ -7377,7 +7747,7 @@
       <c r="BM60" s="36"/>
       <c r="BN60" s="37"/>
     </row>
-    <row r="61" spans="1:66" ht="42.75" customHeight="1">
+    <row r="61" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="27"/>
@@ -7445,7 +7815,7 @@
       <c r="BM61" s="36"/>
       <c r="BN61" s="37"/>
     </row>
-    <row r="62" spans="1:66" ht="42.75" customHeight="1">
+    <row r="62" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="27" t="s">
@@ -7517,7 +7887,7 @@
       <c r="BM62" s="36"/>
       <c r="BN62" s="37"/>
     </row>
-    <row r="63" spans="1:66" ht="42.75" customHeight="1">
+    <row r="63" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
@@ -7585,7 +7955,7 @@
       <c r="BM63" s="36"/>
       <c r="BN63" s="37"/>
     </row>
-    <row r="64" spans="1:66" ht="42.75" customHeight="1">
+    <row r="64" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18" t="s">
@@ -7657,7 +8027,7 @@
       <c r="BM64" s="36"/>
       <c r="BN64" s="37"/>
     </row>
-    <row r="65" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
+    <row r="65" spans="1:66" s="13" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="21"/>
@@ -7725,7 +8095,7 @@
       <c r="BM65" s="39"/>
       <c r="BN65" s="40"/>
     </row>
-    <row r="66" spans="1:66" ht="42.75" customHeight="1">
+    <row r="66" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>20</v>
       </c>
@@ -7799,7 +8169,7 @@
       <c r="BM66" s="36"/>
       <c r="BN66" s="37"/>
     </row>
-    <row r="67" spans="1:66" ht="42.75" customHeight="1">
+    <row r="67" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="27"/>
@@ -7867,7 +8237,7 @@
       <c r="BM67" s="36"/>
       <c r="BN67" s="37"/>
     </row>
-    <row r="68" spans="1:66" ht="42.75" customHeight="1">
+    <row r="68" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="27" t="s">
@@ -7939,7 +8309,7 @@
       <c r="BM68" s="36"/>
       <c r="BN68" s="37"/>
     </row>
-    <row r="69" spans="1:66" ht="42.75" customHeight="1">
+    <row r="69" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="27"/>
@@ -8007,7 +8377,7 @@
       <c r="BM69" s="36"/>
       <c r="BN69" s="37"/>
     </row>
-    <row r="70" spans="1:66" ht="42.75" customHeight="1">
+    <row r="70" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="27" t="s">
@@ -8079,7 +8449,7 @@
       <c r="BM70" s="36"/>
       <c r="BN70" s="37"/>
     </row>
-    <row r="71" spans="1:66" ht="42.75" customHeight="1">
+    <row r="71" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="27"/>
@@ -8147,7 +8517,7 @@
       <c r="BM71" s="36"/>
       <c r="BN71" s="37"/>
     </row>
-    <row r="72" spans="1:66" ht="42.75" customHeight="1">
+    <row r="72" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="27" t="s">
@@ -8219,7 +8589,7 @@
       <c r="BM72" s="36"/>
       <c r="BN72" s="37"/>
     </row>
-    <row r="73" spans="1:66" ht="42.75" customHeight="1">
+    <row r="73" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="27"/>
@@ -8287,7 +8657,7 @@
       <c r="BM73" s="36"/>
       <c r="BN73" s="37"/>
     </row>
-    <row r="74" spans="1:66" ht="42.75" customHeight="1">
+    <row r="74" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="27" t="s">
@@ -8359,7 +8729,7 @@
       <c r="BM74" s="36"/>
       <c r="BN74" s="37"/>
     </row>
-    <row r="75" spans="1:66" ht="42.75" customHeight="1">
+    <row r="75" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="27"/>
@@ -8427,7 +8797,7 @@
       <c r="BM75" s="36"/>
       <c r="BN75" s="37"/>
     </row>
-    <row r="76" spans="1:66" ht="42.75" customHeight="1">
+    <row r="76" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="27" t="s">
@@ -8499,7 +8869,7 @@
       <c r="BM76" s="36"/>
       <c r="BN76" s="37"/>
     </row>
-    <row r="77" spans="1:66" ht="42.75" customHeight="1" thickBot="1">
+    <row r="77" spans="1:66" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -8567,7 +8937,7 @@
       <c r="BM77" s="76"/>
       <c r="BN77" s="77"/>
     </row>
-    <row r="78" spans="1:66" ht="42.75" customHeight="1">
+    <row r="78" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>28</v>
       </c>
@@ -8641,7 +9011,7 @@
       <c r="BM78" s="36"/>
       <c r="BN78" s="37"/>
     </row>
-    <row r="79" spans="1:66" ht="42.75" customHeight="1">
+    <row r="79" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="27"/>
@@ -8709,7 +9079,7 @@
       <c r="BM79" s="36"/>
       <c r="BN79" s="37"/>
     </row>
-    <row r="80" spans="1:66" ht="42.75" customHeight="1">
+    <row r="80" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="27"/>
@@ -8777,7 +9147,7 @@
       <c r="BM80" s="36"/>
       <c r="BN80" s="37"/>
     </row>
-    <row r="81" spans="1:66" ht="42.75" customHeight="1">
+    <row r="81" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="27"/>
@@ -8845,7 +9215,7 @@
       <c r="BM81" s="36"/>
       <c r="BN81" s="37"/>
     </row>
-    <row r="82" spans="1:66">
+    <row r="82" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
@@ -8908,7 +9278,7 @@
       <c r="BM82" s="41"/>
       <c r="BN82" s="41"/>
     </row>
-    <row r="83" spans="1:66">
+    <row r="83" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
@@ -8971,7 +9341,7 @@
       <c r="BM83" s="41"/>
       <c r="BN83" s="41"/>
     </row>
-    <row r="84" spans="1:66">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
@@ -9034,7 +9404,7 @@
       <c r="BM84" s="41"/>
       <c r="BN84" s="41"/>
     </row>
-    <row r="85" spans="1:66">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
       <c r="H85" s="41"/>
@@ -9097,7 +9467,7 @@
       <c r="BM85" s="41"/>
       <c r="BN85" s="41"/>
     </row>
-    <row r="86" spans="1:66">
+    <row r="86" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
@@ -9160,7 +9530,7 @@
       <c r="BM86" s="41"/>
       <c r="BN86" s="41"/>
     </row>
-    <row r="87" spans="1:66">
+    <row r="87" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
@@ -9223,7 +9593,7 @@
       <c r="BM87" s="41"/>
       <c r="BN87" s="41"/>
     </row>
-    <row r="88" spans="1:66">
+    <row r="88" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="41"/>
@@ -9286,7 +9656,7 @@
       <c r="BM88" s="41"/>
       <c r="BN88" s="41"/>
     </row>
-    <row r="89" spans="1:66">
+    <row r="89" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
       <c r="H89" s="41"/>
@@ -9349,7 +9719,7 @@
       <c r="BM89" s="41"/>
       <c r="BN89" s="41"/>
     </row>
-    <row r="90" spans="1:66">
+    <row r="90" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="41"/>
@@ -9412,7 +9782,7 @@
       <c r="BM90" s="41"/>
       <c r="BN90" s="41"/>
     </row>
-    <row r="91" spans="1:66">
+    <row r="91" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
@@ -9475,7 +9845,7 @@
       <c r="BM91" s="41"/>
       <c r="BN91" s="41"/>
     </row>
-    <row r="92" spans="1:66">
+    <row r="92" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
       <c r="H92" s="41"/>
@@ -9538,7 +9908,7 @@
       <c r="BM92" s="41"/>
       <c r="BN92" s="41"/>
     </row>
-    <row r="93" spans="1:66">
+    <row r="93" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
       <c r="H93" s="41"/>
@@ -9601,7 +9971,7 @@
       <c r="BM93" s="41"/>
       <c r="BN93" s="41"/>
     </row>
-    <row r="94" spans="1:66">
+    <row r="94" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
       <c r="H94" s="41"/>
@@ -9664,7 +10034,7 @@
       <c r="BM94" s="41"/>
       <c r="BN94" s="41"/>
     </row>
-    <row r="95" spans="1:66">
+    <row r="95" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
       <c r="H95" s="41"/>
@@ -9727,7 +10097,7 @@
       <c r="BM95" s="41"/>
       <c r="BN95" s="41"/>
     </row>
-    <row r="96" spans="1:66">
+    <row r="96" spans="1:66" x14ac:dyDescent="0.2">
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" s="41"/>
@@ -9790,7 +10160,7 @@
       <c r="BM96" s="41"/>
       <c r="BN96" s="41"/>
     </row>
-    <row r="97" spans="6:66">
+    <row r="97" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
@@ -9853,7 +10223,7 @@
       <c r="BM97" s="41"/>
       <c r="BN97" s="41"/>
     </row>
-    <row r="98" spans="6:66">
+    <row r="98" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" s="41"/>
@@ -9916,7 +10286,7 @@
       <c r="BM98" s="41"/>
       <c r="BN98" s="41"/>
     </row>
-    <row r="99" spans="6:66">
+    <row r="99" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" s="41"/>
@@ -9979,7 +10349,7 @@
       <c r="BM99" s="41"/>
       <c r="BN99" s="41"/>
     </row>
-    <row r="100" spans="6:66">
+    <row r="100" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
       <c r="H100" s="41"/>
@@ -10042,7 +10412,7 @@
       <c r="BM100" s="41"/>
       <c r="BN100" s="41"/>
     </row>
-    <row r="101" spans="6:66">
+    <row r="101" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
       <c r="H101" s="41"/>
@@ -10105,7 +10475,7 @@
       <c r="BM101" s="41"/>
       <c r="BN101" s="41"/>
     </row>
-    <row r="102" spans="6:66">
+    <row r="102" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
       <c r="H102" s="41"/>
@@ -10168,7 +10538,7 @@
       <c r="BM102" s="41"/>
       <c r="BN102" s="41"/>
     </row>
-    <row r="103" spans="6:66">
+    <row r="103" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
       <c r="H103" s="41"/>
@@ -10231,7 +10601,7 @@
       <c r="BM103" s="41"/>
       <c r="BN103" s="41"/>
     </row>
-    <row r="104" spans="6:66">
+    <row r="104" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
       <c r="H104" s="41"/>
@@ -10294,7 +10664,7 @@
       <c r="BM104" s="41"/>
       <c r="BN104" s="41"/>
     </row>
-    <row r="105" spans="6:66">
+    <row r="105" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
       <c r="H105" s="41"/>
@@ -10357,7 +10727,7 @@
       <c r="BM105" s="41"/>
       <c r="BN105" s="41"/>
     </row>
-    <row r="106" spans="6:66">
+    <row r="106" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
       <c r="H106" s="41"/>
@@ -10420,7 +10790,7 @@
       <c r="BM106" s="41"/>
       <c r="BN106" s="41"/>
     </row>
-    <row r="107" spans="6:66">
+    <row r="107" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
@@ -10483,7 +10853,7 @@
       <c r="BM107" s="41"/>
       <c r="BN107" s="41"/>
     </row>
-    <row r="108" spans="6:66">
+    <row r="108" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
       <c r="H108" s="41"/>
@@ -10546,7 +10916,7 @@
       <c r="BM108" s="41"/>
       <c r="BN108" s="41"/>
     </row>
-    <row r="109" spans="6:66">
+    <row r="109" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
       <c r="H109" s="41"/>
@@ -10609,7 +10979,7 @@
       <c r="BM109" s="41"/>
       <c r="BN109" s="41"/>
     </row>
-    <row r="110" spans="6:66">
+    <row r="110" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
       <c r="H110" s="41"/>
@@ -10672,7 +11042,7 @@
       <c r="BM110" s="41"/>
       <c r="BN110" s="41"/>
     </row>
-    <row r="111" spans="6:66">
+    <row r="111" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
       <c r="H111" s="41"/>
@@ -10735,7 +11105,7 @@
       <c r="BM111" s="41"/>
       <c r="BN111" s="41"/>
     </row>
-    <row r="112" spans="6:66">
+    <row r="112" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
       <c r="H112" s="41"/>
@@ -10798,7 +11168,7 @@
       <c r="BM112" s="41"/>
       <c r="BN112" s="41"/>
     </row>
-    <row r="113" spans="6:66">
+    <row r="113" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
       <c r="H113" s="41"/>
@@ -10861,7 +11231,7 @@
       <c r="BM113" s="41"/>
       <c r="BN113" s="41"/>
     </row>
-    <row r="114" spans="6:66">
+    <row r="114" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
       <c r="H114" s="41"/>
@@ -10924,7 +11294,7 @@
       <c r="BM114" s="41"/>
       <c r="BN114" s="41"/>
     </row>
-    <row r="115" spans="6:66">
+    <row r="115" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
       <c r="H115" s="41"/>
@@ -10987,7 +11357,7 @@
       <c r="BM115" s="41"/>
       <c r="BN115" s="41"/>
     </row>
-    <row r="116" spans="6:66">
+    <row r="116" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
       <c r="H116" s="41"/>
@@ -11050,7 +11420,7 @@
       <c r="BM116" s="41"/>
       <c r="BN116" s="41"/>
     </row>
-    <row r="117" spans="6:66">
+    <row r="117" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
       <c r="H117" s="41"/>
@@ -11113,7 +11483,7 @@
       <c r="BM117" s="41"/>
       <c r="BN117" s="41"/>
     </row>
-    <row r="118" spans="6:66">
+    <row r="118" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
       <c r="H118" s="41"/>
@@ -11176,7 +11546,7 @@
       <c r="BM118" s="41"/>
       <c r="BN118" s="41"/>
     </row>
-    <row r="119" spans="6:66">
+    <row r="119" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
       <c r="H119" s="41"/>
@@ -11239,7 +11609,7 @@
       <c r="BM119" s="41"/>
       <c r="BN119" s="41"/>
     </row>
-    <row r="120" spans="6:66">
+    <row r="120" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
       <c r="H120" s="41"/>
@@ -11302,7 +11672,7 @@
       <c r="BM120" s="41"/>
       <c r="BN120" s="41"/>
     </row>
-    <row r="121" spans="6:66">
+    <row r="121" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
       <c r="H121" s="41"/>
@@ -11365,7 +11735,7 @@
       <c r="BM121" s="41"/>
       <c r="BN121" s="41"/>
     </row>
-    <row r="122" spans="6:66">
+    <row r="122" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
       <c r="H122" s="41"/>
@@ -11428,7 +11798,7 @@
       <c r="BM122" s="41"/>
       <c r="BN122" s="41"/>
     </row>
-    <row r="123" spans="6:66">
+    <row r="123" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F123" s="41"/>
       <c r="G123" s="41"/>
       <c r="H123" s="41"/>
@@ -11491,7 +11861,7 @@
       <c r="BM123" s="41"/>
       <c r="BN123" s="41"/>
     </row>
-    <row r="124" spans="6:66">
+    <row r="124" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="41"/>
@@ -11554,7 +11924,7 @@
       <c r="BM124" s="41"/>
       <c r="BN124" s="41"/>
     </row>
-    <row r="125" spans="6:66">
+    <row r="125" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
       <c r="H125" s="41"/>
@@ -11617,7 +11987,7 @@
       <c r="BM125" s="41"/>
       <c r="BN125" s="41"/>
     </row>
-    <row r="126" spans="6:66">
+    <row r="126" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F126" s="41"/>
       <c r="G126" s="41"/>
       <c r="H126" s="41"/>
@@ -11680,7 +12050,7 @@
       <c r="BM126" s="41"/>
       <c r="BN126" s="41"/>
     </row>
-    <row r="127" spans="6:66">
+    <row r="127" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F127" s="41"/>
       <c r="G127" s="41"/>
       <c r="H127" s="41"/>
@@ -11743,7 +12113,7 @@
       <c r="BM127" s="41"/>
       <c r="BN127" s="41"/>
     </row>
-    <row r="128" spans="6:66">
+    <row r="128" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
       <c r="H128" s="41"/>
@@ -11806,7 +12176,7 @@
       <c r="BM128" s="41"/>
       <c r="BN128" s="41"/>
     </row>
-    <row r="129" spans="6:66">
+    <row r="129" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
       <c r="H129" s="41"/>
@@ -11869,7 +12239,7 @@
       <c r="BM129" s="41"/>
       <c r="BN129" s="41"/>
     </row>
-    <row r="130" spans="6:66">
+    <row r="130" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F130" s="41"/>
       <c r="G130" s="41"/>
       <c r="H130" s="41"/>
@@ -11932,7 +12302,7 @@
       <c r="BM130" s="41"/>
       <c r="BN130" s="41"/>
     </row>
-    <row r="131" spans="6:66">
+    <row r="131" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F131" s="41"/>
       <c r="G131" s="41"/>
       <c r="H131" s="41"/>
@@ -11995,7 +12365,7 @@
       <c r="BM131" s="41"/>
       <c r="BN131" s="41"/>
     </row>
-    <row r="132" spans="6:66">
+    <row r="132" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F132" s="41"/>
       <c r="G132" s="41"/>
       <c r="H132" s="41"/>
@@ -12058,7 +12428,7 @@
       <c r="BM132" s="41"/>
       <c r="BN132" s="41"/>
     </row>
-    <row r="133" spans="6:66">
+    <row r="133" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F133" s="41"/>
       <c r="G133" s="41"/>
       <c r="H133" s="41"/>
@@ -12121,7 +12491,7 @@
       <c r="BM133" s="41"/>
       <c r="BN133" s="41"/>
     </row>
-    <row r="134" spans="6:66">
+    <row r="134" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F134" s="41"/>
       <c r="G134" s="41"/>
       <c r="H134" s="41"/>
@@ -12184,7 +12554,7 @@
       <c r="BM134" s="41"/>
       <c r="BN134" s="41"/>
     </row>
-    <row r="135" spans="6:66">
+    <row r="135" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F135" s="41"/>
       <c r="G135" s="41"/>
       <c r="H135" s="41"/>
@@ -12247,7 +12617,7 @@
       <c r="BM135" s="41"/>
       <c r="BN135" s="41"/>
     </row>
-    <row r="136" spans="6:66">
+    <row r="136" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
       <c r="H136" s="41"/>
@@ -12310,7 +12680,7 @@
       <c r="BM136" s="41"/>
       <c r="BN136" s="41"/>
     </row>
-    <row r="137" spans="6:66">
+    <row r="137" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F137" s="41"/>
       <c r="G137" s="41"/>
       <c r="H137" s="41"/>
@@ -12373,7 +12743,7 @@
       <c r="BM137" s="41"/>
       <c r="BN137" s="41"/>
     </row>
-    <row r="138" spans="6:66">
+    <row r="138" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F138" s="41"/>
       <c r="G138" s="41"/>
       <c r="H138" s="41"/>
@@ -12436,7 +12806,7 @@
       <c r="BM138" s="41"/>
       <c r="BN138" s="41"/>
     </row>
-    <row r="139" spans="6:66">
+    <row r="139" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F139" s="41"/>
       <c r="G139" s="41"/>
       <c r="H139" s="41"/>
@@ -12499,7 +12869,7 @@
       <c r="BM139" s="41"/>
       <c r="BN139" s="41"/>
     </row>
-    <row r="140" spans="6:66">
+    <row r="140" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
       <c r="H140" s="41"/>
@@ -12562,7 +12932,7 @@
       <c r="BM140" s="41"/>
       <c r="BN140" s="41"/>
     </row>
-    <row r="141" spans="6:66">
+    <row r="141" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F141" s="41"/>
       <c r="G141" s="41"/>
       <c r="H141" s="41"/>
@@ -12625,7 +12995,7 @@
       <c r="BM141" s="41"/>
       <c r="BN141" s="41"/>
     </row>
-    <row r="142" spans="6:66">
+    <row r="142" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F142" s="41"/>
       <c r="G142" s="41"/>
       <c r="H142" s="41"/>
@@ -12688,7 +13058,7 @@
       <c r="BM142" s="41"/>
       <c r="BN142" s="41"/>
     </row>
-    <row r="143" spans="6:66">
+    <row r="143" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F143" s="41"/>
       <c r="G143" s="41"/>
       <c r="H143" s="41"/>
@@ -12751,7 +13121,7 @@
       <c r="BM143" s="41"/>
       <c r="BN143" s="41"/>
     </row>
-    <row r="144" spans="6:66">
+    <row r="144" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F144" s="41"/>
       <c r="G144" s="41"/>
       <c r="H144" s="41"/>
@@ -12814,7 +13184,7 @@
       <c r="BM144" s="41"/>
       <c r="BN144" s="41"/>
     </row>
-    <row r="145" spans="6:66">
+    <row r="145" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F145" s="41"/>
       <c r="G145" s="41"/>
       <c r="H145" s="41"/>
@@ -12877,7 +13247,7 @@
       <c r="BM145" s="41"/>
       <c r="BN145" s="41"/>
     </row>
-    <row r="146" spans="6:66">
+    <row r="146" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F146" s="41"/>
       <c r="G146" s="41"/>
       <c r="H146" s="41"/>
@@ -12940,7 +13310,7 @@
       <c r="BM146" s="41"/>
       <c r="BN146" s="41"/>
     </row>
-    <row r="147" spans="6:66">
+    <row r="147" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F147" s="41"/>
       <c r="G147" s="41"/>
       <c r="H147" s="41"/>
@@ -13003,7 +13373,7 @@
       <c r="BM147" s="41"/>
       <c r="BN147" s="41"/>
     </row>
-    <row r="148" spans="6:66">
+    <row r="148" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F148" s="41"/>
       <c r="G148" s="41"/>
       <c r="H148" s="41"/>
@@ -13066,7 +13436,7 @@
       <c r="BM148" s="41"/>
       <c r="BN148" s="41"/>
     </row>
-    <row r="149" spans="6:66">
+    <row r="149" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F149" s="41"/>
       <c r="G149" s="41"/>
       <c r="H149" s="41"/>
@@ -13129,7 +13499,7 @@
       <c r="BM149" s="41"/>
       <c r="BN149" s="41"/>
     </row>
-    <row r="150" spans="6:66">
+    <row r="150" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F150" s="41"/>
       <c r="G150" s="41"/>
       <c r="H150" s="41"/>
@@ -13192,7 +13562,7 @@
       <c r="BM150" s="41"/>
       <c r="BN150" s="41"/>
     </row>
-    <row r="151" spans="6:66">
+    <row r="151" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F151" s="41"/>
       <c r="G151" s="41"/>
       <c r="H151" s="41"/>
@@ -13255,7 +13625,7 @@
       <c r="BM151" s="41"/>
       <c r="BN151" s="41"/>
     </row>
-    <row r="152" spans="6:66">
+    <row r="152" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F152" s="41"/>
       <c r="G152" s="41"/>
       <c r="H152" s="41"/>
@@ -13318,7 +13688,7 @@
       <c r="BM152" s="41"/>
       <c r="BN152" s="41"/>
     </row>
-    <row r="153" spans="6:66">
+    <row r="153" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F153" s="41"/>
       <c r="G153" s="41"/>
       <c r="H153" s="41"/>
@@ -13381,7 +13751,7 @@
       <c r="BM153" s="41"/>
       <c r="BN153" s="41"/>
     </row>
-    <row r="154" spans="6:66">
+    <row r="154" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F154" s="41"/>
       <c r="G154" s="41"/>
       <c r="H154" s="41"/>
@@ -13444,7 +13814,7 @@
       <c r="BM154" s="41"/>
       <c r="BN154" s="41"/>
     </row>
-    <row r="155" spans="6:66">
+    <row r="155" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F155" s="41"/>
       <c r="G155" s="41"/>
       <c r="H155" s="41"/>
@@ -13507,7 +13877,7 @@
       <c r="BM155" s="41"/>
       <c r="BN155" s="41"/>
     </row>
-    <row r="156" spans="6:66">
+    <row r="156" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F156" s="41"/>
       <c r="G156" s="41"/>
       <c r="H156" s="41"/>
@@ -13570,7 +13940,7 @@
       <c r="BM156" s="41"/>
       <c r="BN156" s="41"/>
     </row>
-    <row r="157" spans="6:66">
+    <row r="157" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F157" s="41"/>
       <c r="G157" s="41"/>
       <c r="H157" s="41"/>
@@ -13633,7 +14003,7 @@
       <c r="BM157" s="41"/>
       <c r="BN157" s="41"/>
     </row>
-    <row r="158" spans="6:66">
+    <row r="158" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F158" s="41"/>
       <c r="G158" s="41"/>
       <c r="H158" s="41"/>
@@ -13696,7 +14066,7 @@
       <c r="BM158" s="41"/>
       <c r="BN158" s="41"/>
     </row>
-    <row r="159" spans="6:66">
+    <row r="159" spans="6:66" x14ac:dyDescent="0.2">
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
       <c r="H159" s="41"/>
